--- a/premise/data/additional_inventories/lci-PV-GaAs.xlsx
+++ b/premise/data/additional_inventories/lci-PV-GaAs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E899635E-ED53-458B-9D3B-3910D3B0735A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29FE051-7C47-4870-AB5C-9CF6143F8D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PV_GaAs" sheetId="3" r:id="rId1"/>
@@ -234,9 +234,6 @@
     <t>sodium</t>
   </si>
   <si>
-    <t>xylene</t>
-  </si>
-  <si>
     <t>gallium chloride</t>
   </si>
   <si>
@@ -348,12 +345,6 @@
     <t>biosphere3</t>
   </si>
   <si>
-    <t>hydrogen, liquid</t>
-  </si>
-  <si>
-    <t>hydrogen cracking, APME</t>
-  </si>
-  <si>
     <t>hydrogen sulfide production</t>
   </si>
   <si>
@@ -528,9 +519,6 @@
     <t>diethylene glycol</t>
   </si>
   <si>
-    <t>ethylene glycol production</t>
-  </si>
-  <si>
     <t>changed "electricity (polishing)" to "electricity, low voltage"</t>
   </si>
   <si>
@@ -600,12 +588,6 @@
     <t>packaging film production, low density polyethylene</t>
   </si>
   <si>
-    <t>sodium chloride electrolysis</t>
-  </si>
-  <si>
-    <t>xylene production</t>
-  </si>
-  <si>
     <t>changed "Hazardous waste" to "hazardous waste, for incineration"</t>
   </si>
   <si>
@@ -660,12 +642,6 @@
     <t>nitrogen, liquid</t>
   </si>
   <si>
-    <t>air separation, cryogenic</t>
-  </si>
-  <si>
-    <t>changed "nitrogen" to "nitrogen, liquid" and "nitrogen, liquid air separation, cryogenic " to "air separation, cryogenic"</t>
-  </si>
-  <si>
     <t>Water</t>
   </si>
   <si>
@@ -862,6 +838,30 @@
   </si>
   <si>
     <t>gallium chloride production</t>
+  </si>
+  <si>
+    <t>market for diethylene glycol</t>
+  </si>
+  <si>
+    <t>Original inventory, "hydrogen cracking, APME", "hydrogen, liquid", has been deleted in EI3.10</t>
+  </si>
+  <si>
+    <t>hydrogen, gaseous, low pressure</t>
+  </si>
+  <si>
+    <t>unsaturated hydrocarbons production, steam cracking operation, average</t>
+  </si>
+  <si>
+    <t>market for xylene, mixed</t>
+  </si>
+  <si>
+    <t>xylene, mixed</t>
+  </si>
+  <si>
+    <t>market for nitrogen, liquid</t>
+  </si>
+  <si>
+    <t>sodium production, sodium chloride electrolysis, molten salt cell</t>
   </si>
 </sst>
 </file>
@@ -1413,8 +1413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I442"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A339" zoomScale="108" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="A354" sqref="A354"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1435,7 +1435,7 @@
         <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1454,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="12"/>
@@ -1466,10 +1466,10 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="41" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="12"/>
@@ -1514,7 +1514,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="12"/>
@@ -1556,10 +1556,10 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="12"/>
@@ -1621,7 +1621,7 @@
         <v>GaAs wafer with resist patterned</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D15" s="12">
         <v>1</v>
@@ -1639,18 +1639,18 @@
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75">
       <c r="A16" s="31" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D16" s="12">
         <v>1</v>
@@ -1659,7 +1659,7 @@
         <v>20</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>17</v>
@@ -1669,13 +1669,13 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D17" s="18">
         <v>0.06</v>
@@ -1691,18 +1691,18 @@
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="C18" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D18" s="18">
         <v>0.06</v>
@@ -1721,13 +1721,13 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D19" s="18">
         <v>5.5999999999999995E-4</v>
@@ -1743,18 +1743,18 @@
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="D20" s="18">
         <v>0.13</v>
@@ -1773,13 +1773,13 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="D21" s="12">
         <v>16</v>
@@ -1795,18 +1795,18 @@
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D22" s="18">
         <v>13</v>
@@ -1825,7 +1825,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="3"/>
@@ -1836,25 +1836,25 @@
         <v>5</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="C24" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D24" s="12">
         <v>-0.25</v>
@@ -1870,7 +1870,7 @@
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1890,10 +1890,10 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="41" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B27" s="41" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="12"/>
@@ -1938,7 +1938,7 @@
         <v>1</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="12"/>
@@ -1980,10 +1980,10 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="12"/>
@@ -2045,7 +2045,7 @@
         <v>GaAs wafer with resist and gold particles</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D36" s="12">
         <v>1</v>
@@ -2054,7 +2054,7 @@
         <v>20</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>10</v>
@@ -2064,13 +2064,13 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="41" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D37" s="12">
         <v>1</v>
@@ -2079,7 +2079,7 @@
         <v>20</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>17</v>
@@ -2089,13 +2089,13 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D38" s="12">
         <v>1.6899999999999999E-4</v>
@@ -2114,13 +2114,13 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D39" s="12">
         <v>2.1999999999999999E-2</v>
@@ -2139,13 +2139,13 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="D40" s="12">
         <v>16</v>
@@ -2161,18 +2161,18 @@
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D41" s="12">
         <v>0.7</v>
@@ -2191,7 +2191,7 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="3"/>
@@ -2202,19 +2202,19 @@
         <v>5</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I42" s="1"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="3"/>
@@ -2225,19 +2225,19 @@
         <v>5</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I43" s="1"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2248,27 +2248,27 @@
         <v>12</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="C45" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D45" s="12">
         <v>-1.6700000000000001E-6</v>
@@ -2284,7 +2284,7 @@
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="12"/>
@@ -2304,10 +2304,10 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="41" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B48" s="41" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="12"/>
@@ -2352,7 +2352,7 @@
         <v>1</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="12"/>
@@ -2394,10 +2394,10 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="12"/>
@@ -2459,7 +2459,7 @@
         <v>GaAs wafer with gold particles</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D57" s="12">
         <v>1</v>
@@ -2468,7 +2468,7 @@
         <v>20</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>10</v>
@@ -2484,7 +2484,7 @@
         <v>24</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D58" s="12">
         <v>1</v>
@@ -2493,7 +2493,7 @@
         <v>20</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>17</v>
@@ -2503,13 +2503,13 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D59" s="4">
         <v>0.36</v>
@@ -2525,18 +2525,18 @@
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="D60" s="4">
         <v>8</v>
@@ -2552,18 +2552,18 @@
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D61" s="4">
         <v>0.64700000000000002</v>
@@ -2582,13 +2582,13 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="C62" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D62" s="4">
         <v>-0.36</v>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2612,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="12"/>
@@ -2624,10 +2624,10 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="41" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B65" s="41" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="12"/>
@@ -2672,7 +2672,7 @@
         <v>1</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="12"/>
@@ -2714,10 +2714,10 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="12"/>
@@ -2779,7 +2779,7 @@
         <v>GaAs wafer with nanowires</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D74" s="12">
         <v>1</v>
@@ -2788,7 +2788,7 @@
         <v>20</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>10</v>
@@ -2804,7 +2804,7 @@
         <v>28</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D75" s="12">
         <v>1</v>
@@ -2813,7 +2813,7 @@
         <v>20</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>17</v>
@@ -2823,13 +2823,13 @@
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>106</v>
+        <v>272</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>105</v>
+        <v>271</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D76" s="4">
         <v>2.1</v>
@@ -2844,17 +2844,19 @@
         <v>17</v>
       </c>
       <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
+      <c r="I76" s="1" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D77" s="4">
         <v>8.4999999999999999E-6</v>
@@ -2873,13 +2875,13 @@
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D78" s="4">
         <v>8.4999999999999999E-6</v>
@@ -2895,18 +2897,18 @@
       </c>
       <c r="H78" s="1"/>
       <c r="I78" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="29" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B79" s="29" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D79" s="4">
         <v>1.48E-3</v>
@@ -2915,7 +2917,7 @@
         <v>5</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>17</v>
@@ -2925,13 +2927,13 @@
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D80" s="4">
         <v>2.98E-3</v>
@@ -2950,13 +2952,13 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D81" s="4">
         <v>8.4999999999999999E-6</v>
@@ -2972,18 +2974,18 @@
       </c>
       <c r="H81" s="1"/>
       <c r="I81" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D82" s="4">
         <v>0.68</v>
@@ -3002,13 +3004,13 @@
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="C83" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D83" s="4">
         <v>-3.3E-3</v>
@@ -3024,7 +3026,7 @@
       </c>
       <c r="H83" s="1"/>
       <c r="I83" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -3032,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="12"/>
@@ -3044,10 +3046,10 @@
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="41" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B86" s="41" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="12"/>
@@ -3092,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="12"/>
@@ -3134,10 +3136,10 @@
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="12"/>
@@ -3199,7 +3201,7 @@
         <v>GaAs wafer - re-polished for reuse</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D95" s="12">
         <v>1</v>
@@ -3208,25 +3210,25 @@
         <v>20</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H95" s="1"/>
       <c r="I95" s="3" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D96" s="12">
         <v>1</v>
@@ -3235,7 +3237,7 @@
         <v>20</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>17</v>
@@ -3245,13 +3247,13 @@
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D97" s="4">
         <v>1.02</v>
@@ -3267,18 +3269,18 @@
       </c>
       <c r="H97" s="1"/>
       <c r="I97" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D98" s="4">
         <v>0.69299999999999995</v>
@@ -3294,18 +3296,18 @@
       </c>
       <c r="H98" s="1"/>
       <c r="I98" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="C99" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D99" s="4">
         <v>0.69799999999999995</v>
@@ -3324,13 +3326,13 @@
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D100" s="4">
         <v>0.17199999999999999</v>
@@ -3346,18 +3348,18 @@
       </c>
       <c r="H100" s="1"/>
       <c r="I100" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="10" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D101" s="4">
         <v>11.6</v>
@@ -3376,13 +3378,13 @@
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D102" s="4">
         <v>2.7599999999999999E-3</v>
@@ -3398,18 +3400,18 @@
       </c>
       <c r="H102" s="1"/>
       <c r="I102" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D103" s="4">
         <v>9.8699999999999992</v>
@@ -3425,18 +3427,18 @@
       </c>
       <c r="H103" s="1"/>
       <c r="I103" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="C104" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D104" s="4">
         <v>-2.59</v>
@@ -3452,7 +3454,7 @@
       </c>
       <c r="H104" s="1"/>
       <c r="I104" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -3471,7 +3473,7 @@
         <v>0</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="C106" s="1"/>
       <c r="D106" s="12"/>
@@ -3483,10 +3485,10 @@
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="B107" s="41" t="s">
         <v>250</v>
-      </c>
-      <c r="B107" s="41" t="s">
-        <v>258</v>
       </c>
       <c r="C107" s="1"/>
       <c r="D107" s="12"/>
@@ -3531,7 +3533,7 @@
         <v>1</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C110" s="1"/>
       <c r="D110" s="12"/>
@@ -3573,10 +3575,10 @@
     </row>
     <row r="113" spans="1:9">
       <c r="A113" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C113" s="1"/>
       <c r="D113" s="12"/>
@@ -3638,7 +3640,7 @@
         <v>polycrystalline GaAs boule</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D116" s="12">
         <v>1</v>
@@ -3659,13 +3661,13 @@
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D117" s="19">
         <v>0.23599999999999999</v>
@@ -3674,7 +3676,7 @@
         <v>5</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>17</v>
@@ -3684,13 +3686,13 @@
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="1" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D118" s="19">
         <v>0.51600000000000001</v>
@@ -3699,7 +3701,7 @@
         <v>5</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>17</v>
@@ -3709,13 +3711,13 @@
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D119" s="19">
         <v>0.01</v>
@@ -3731,18 +3733,18 @@
       </c>
       <c r="H119" s="1"/>
       <c r="I119" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D120" s="19">
         <v>50</v>
@@ -3758,18 +3760,18 @@
       </c>
       <c r="H120" s="1"/>
       <c r="I120" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D121" s="19">
         <v>-0.01</v>
@@ -3785,7 +3787,7 @@
       </c>
       <c r="H121" s="1"/>
       <c r="I121" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -3796,7 +3798,7 @@
         <v>0</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C123" s="1"/>
       <c r="D123" s="12"/>
@@ -3808,10 +3810,10 @@
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="B124" s="41" t="s">
         <v>250</v>
-      </c>
-      <c r="B124" s="41" t="s">
-        <v>258</v>
       </c>
       <c r="C124" s="1"/>
       <c r="D124" s="12"/>
@@ -3856,7 +3858,7 @@
         <v>1</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C127" s="1"/>
       <c r="D127" s="12"/>
@@ -3898,10 +3900,10 @@
     </row>
     <row r="130" spans="1:9">
       <c r="A130" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C130" s="1"/>
       <c r="D130" s="12"/>
@@ -3963,7 +3965,7 @@
         <v xml:space="preserve">7N Gallium </v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D133" s="12">
         <v>1</v>
@@ -3973,7 +3975,7 @@
         <v>kilogram</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G133" s="1" t="s">
         <v>10</v>
@@ -3983,13 +3985,13 @@
     </row>
     <row r="134" spans="1:9">
       <c r="A134" s="10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D134" s="19">
         <v>1.4285714</v>
@@ -4005,18 +4007,18 @@
       </c>
       <c r="H134" s="1"/>
       <c r="I134" s="10" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="135" spans="1:9">
       <c r="A135" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D135" s="19">
         <v>5.7142856999999996</v>
@@ -4032,7 +4034,7 @@
       </c>
       <c r="H135" s="1"/>
       <c r="I135" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -4046,7 +4048,7 @@
         <v>0</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="C137" s="1"/>
       <c r="D137" s="12"/>
@@ -4058,10 +4060,10 @@
     </row>
     <row r="138" spans="1:9">
       <c r="A138" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="B138" s="41" t="s">
         <v>250</v>
-      </c>
-      <c r="B138" s="41" t="s">
-        <v>258</v>
       </c>
       <c r="C138" s="1"/>
       <c r="D138" s="12"/>
@@ -4076,7 +4078,7 @@
         <v>2</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C139" s="1"/>
       <c r="D139" s="12"/>
@@ -4106,7 +4108,7 @@
         <v>1</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C141" s="1"/>
       <c r="D141" s="12"/>
@@ -4148,10 +4150,10 @@
     </row>
     <row r="144" spans="1:9">
       <c r="A144" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C144" s="1"/>
       <c r="D144" s="12"/>
@@ -4213,7 +4215,7 @@
         <v>7N Arsenic</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D147" s="12">
         <v>1</v>
@@ -4223,7 +4225,7 @@
         <v>kilogram</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G147" s="1" t="s">
         <v>10</v>
@@ -4233,13 +4235,13 @@
     </row>
     <row r="148" spans="1:9">
       <c r="A148" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B148" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D148" s="19">
         <v>1.4705881999999999</v>
@@ -4255,18 +4257,18 @@
       </c>
       <c r="H148" s="1"/>
       <c r="I148" s="10" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="149" spans="1:9">
       <c r="A149" s="1" t="s">
-        <v>106</v>
+        <v>272</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>105</v>
+        <v>271</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D149" s="19">
         <v>9.4117599999999996E-2</v>
@@ -4282,18 +4284,18 @@
       </c>
       <c r="H149" s="1"/>
       <c r="I149" s="10" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="150" spans="1:9">
       <c r="A150" s="10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D150" s="19">
         <v>4.7058799999999998E-2</v>
@@ -4309,18 +4311,18 @@
       </c>
       <c r="H150" s="1"/>
       <c r="I150" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="151" spans="1:9">
       <c r="A151" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D151" s="19">
         <v>8.1176470999999992</v>
@@ -4336,7 +4338,7 @@
       </c>
       <c r="H151" s="1"/>
       <c r="I151" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -4344,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C153" s="1"/>
       <c r="D153" s="12"/>
@@ -4356,10 +4358,10 @@
     </row>
     <row r="154" spans="1:9">
       <c r="A154" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="B154" s="41" t="s">
         <v>250</v>
-      </c>
-      <c r="B154" s="41" t="s">
-        <v>258</v>
       </c>
       <c r="C154" s="1"/>
       <c r="D154" s="12"/>
@@ -4404,7 +4406,7 @@
         <v>1</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C157" s="1"/>
       <c r="D157" s="12"/>
@@ -4446,10 +4448,10 @@
     </row>
     <row r="160" spans="1:9">
       <c r="A160" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C160" s="1"/>
       <c r="D160" s="12"/>
@@ -4511,7 +4513,7 @@
         <v>single-crystal GaAs boule</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D163" s="12">
         <v>1</v>
@@ -4521,7 +4523,7 @@
         <v>kilogram</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G163" s="1" t="s">
         <v>10</v>
@@ -4531,13 +4533,13 @@
     </row>
     <row r="164" spans="1:9">
       <c r="A164" s="1" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="B164" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D164" s="19">
         <v>1.08</v>
@@ -4546,7 +4548,7 @@
         <v>5</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G164" s="1" t="s">
         <v>17</v>
@@ -4556,13 +4558,13 @@
     </row>
     <row r="165" spans="1:9">
       <c r="A165" s="10" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D165" s="19">
         <v>5.0000000000000001E-3</v>
@@ -4578,18 +4580,18 @@
       </c>
       <c r="H165" s="1"/>
       <c r="I165" s="10" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="166" spans="1:9">
       <c r="A166" s="10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D166" s="19">
         <v>0.01</v>
@@ -4605,18 +4607,18 @@
       </c>
       <c r="H166" s="1"/>
       <c r="I166" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="167" spans="1:9">
       <c r="A167" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D167" s="19">
         <v>160</v>
@@ -4632,18 +4634,18 @@
       </c>
       <c r="H167" s="1"/>
       <c r="I167" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="168" spans="1:9">
       <c r="A168" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D168" s="19">
         <v>-0.01</v>
@@ -4659,18 +4661,18 @@
       </c>
       <c r="H168" s="1"/>
       <c r="I168" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="169" spans="1:9">
       <c r="A169" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B169" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D169" s="19">
         <v>-5.0000000000000001E-3</v>
@@ -4686,18 +4688,18 @@
       </c>
       <c r="H169" s="1"/>
       <c r="I169" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="170" spans="1:9">
       <c r="A170" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B170" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D170" s="19">
         <v>-0.08</v>
@@ -4713,7 +4715,7 @@
       </c>
       <c r="H170" s="1"/>
       <c r="I170" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -4728,7 +4730,7 @@
         <v>0</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C172" s="1"/>
       <c r="D172" s="12"/>
@@ -4740,10 +4742,10 @@
     </row>
     <row r="173" spans="1:9">
       <c r="A173" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="B173" s="41" t="s">
         <v>250</v>
-      </c>
-      <c r="B173" s="41" t="s">
-        <v>258</v>
       </c>
       <c r="C173" s="1"/>
       <c r="D173" s="12"/>
@@ -4788,7 +4790,7 @@
         <v>1</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C176" s="1"/>
       <c r="D176" s="12"/>
@@ -4830,10 +4832,10 @@
     </row>
     <row r="179" spans="1:9">
       <c r="A179" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C179" s="1"/>
       <c r="D179" s="12"/>
@@ -4895,7 +4897,7 @@
         <v>single-crystal GaAs ingot</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D182" s="12">
         <f>B177</f>
@@ -4906,7 +4908,7 @@
         <v>kilogram</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G182" s="1" t="s">
         <v>10</v>
@@ -4916,13 +4918,13 @@
     </row>
     <row r="183" spans="1:9">
       <c r="A183" s="1" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="B183" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D183" s="19">
         <v>1.0989011</v>
@@ -4931,7 +4933,7 @@
         <v>5</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G183" s="1" t="s">
         <v>17</v>
@@ -4941,13 +4943,13 @@
     </row>
     <row r="184" spans="1:9">
       <c r="A184" s="10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B184" s="32" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D184" s="19">
         <v>5.7140000000000001E-8</v>
@@ -4963,18 +4965,18 @@
       </c>
       <c r="H184" s="1"/>
       <c r="I184" s="10" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="185" spans="1:9">
       <c r="A185" s="1" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B185" s="10" t="s">
         <v>39</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D185" s="19">
         <v>4.3960000000000001E-4</v>
@@ -4983,7 +4985,7 @@
         <v>4</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G185" s="1" t="s">
         <v>17</v>
@@ -4993,13 +4995,13 @@
     </row>
     <row r="186" spans="1:9">
       <c r="A186" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D186" s="19">
         <v>0.43956040000000002</v>
@@ -5015,18 +5017,18 @@
       </c>
       <c r="H186" s="1"/>
       <c r="I186" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="187" spans="1:9">
       <c r="A187" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D187" s="19">
         <v>7.4725299999999995E-2</v>
@@ -5042,18 +5044,18 @@
       </c>
       <c r="H187" s="1"/>
       <c r="I187" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="188" spans="1:9">
       <c r="A188" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D188" s="19">
         <v>0.43956040000000002</v>
@@ -5069,18 +5071,18 @@
       </c>
       <c r="H188" s="1"/>
       <c r="I188" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="189" spans="1:9">
       <c r="A189" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B189" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D189" s="19">
         <v>-5.0549499999999997E-2</v>
@@ -5096,7 +5098,7 @@
       </c>
       <c r="H189" s="1"/>
       <c r="I189" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -5111,7 +5113,7 @@
         <v>0</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C191" s="1"/>
       <c r="D191" s="12"/>
@@ -5123,10 +5125,10 @@
     </row>
     <row r="192" spans="1:9">
       <c r="A192" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="B192" s="41" t="s">
         <v>250</v>
-      </c>
-      <c r="B192" s="41" t="s">
-        <v>258</v>
       </c>
       <c r="C192" s="1"/>
       <c r="D192" s="12"/>
@@ -5171,7 +5173,7 @@
         <v>1</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C195" s="1"/>
       <c r="D195" s="12"/>
@@ -5213,10 +5215,10 @@
     </row>
     <row r="198" spans="1:9">
       <c r="A198" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C198" s="1"/>
       <c r="D198" s="12"/>
@@ -5278,7 +5280,7 @@
         <v>diamond saw</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D201" s="12">
         <f>B196</f>
@@ -5289,7 +5291,7 @@
         <v>unit</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G201" s="1" t="s">
         <v>10</v>
@@ -5299,13 +5301,13 @@
     </row>
     <row r="202" spans="1:9">
       <c r="A202" s="10" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B202" s="10" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D202" s="19">
         <v>0.02</v>
@@ -5321,18 +5323,18 @@
       </c>
       <c r="H202" s="1"/>
       <c r="I202" s="10" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="203" spans="1:9">
       <c r="A203" s="1" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="B203" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D203" s="19">
         <v>2.0000000000000001E-4</v>
@@ -5341,7 +5343,7 @@
         <v>5</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G203" s="1" t="s">
         <v>17</v>
@@ -5351,13 +5353,13 @@
     </row>
     <row r="204" spans="1:9">
       <c r="A204" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D204" s="19">
         <v>10</v>
@@ -5373,7 +5375,7 @@
       </c>
       <c r="H204" s="1"/>
       <c r="I204" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="205" spans="1:9">
@@ -5387,7 +5389,7 @@
         <v>0</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="C206" s="1"/>
       <c r="D206" s="12"/>
@@ -5399,10 +5401,10 @@
     </row>
     <row r="207" spans="1:9">
       <c r="A207" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="B207" s="41" t="s">
         <v>250</v>
-      </c>
-      <c r="B207" s="41" t="s">
-        <v>258</v>
       </c>
       <c r="C207" s="1"/>
       <c r="D207" s="12"/>
@@ -5447,7 +5449,7 @@
         <v>1</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C210" s="1"/>
       <c r="D210" s="12"/>
@@ -5489,10 +5491,10 @@
     </row>
     <row r="213" spans="1:9">
       <c r="A213" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C213" s="1"/>
       <c r="D213" s="12"/>
@@ -5554,7 +5556,7 @@
         <v>synthetic diamond</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D216" s="12">
         <f>B211</f>
@@ -5565,7 +5567,7 @@
         <v>kilogram</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G216" s="1" t="s">
         <v>10</v>
@@ -5575,13 +5577,13 @@
     </row>
     <row r="217" spans="1:9">
       <c r="A217" s="35" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B217" s="35" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C217" s="36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D217" s="19">
         <v>14.545455</v>
@@ -5597,18 +5599,18 @@
       </c>
       <c r="H217" s="1"/>
       <c r="I217" s="37" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="218" spans="1:9">
       <c r="A218" s="1" t="s">
-        <v>106</v>
+        <v>272</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>105</v>
+        <v>271</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D218" s="19">
         <v>3.6363600000000003E-2</v>
@@ -5624,18 +5626,18 @@
       </c>
       <c r="H218" s="1"/>
       <c r="I218" s="10" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="219" spans="1:9">
       <c r="A219" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D219" s="19">
         <v>1218181.8</v>
@@ -5651,7 +5653,7 @@
       </c>
       <c r="H219" s="1"/>
       <c r="I219" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="220" spans="1:9">
@@ -5662,7 +5664,7 @@
         <v>0</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="C221" s="1"/>
       <c r="D221" s="12"/>
@@ -5674,10 +5676,10 @@
     </row>
     <row r="222" spans="1:9">
       <c r="A222" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="B222" s="41" t="s">
         <v>250</v>
-      </c>
-      <c r="B222" s="41" t="s">
-        <v>258</v>
       </c>
       <c r="C222" s="1"/>
       <c r="D222" s="12"/>
@@ -5722,7 +5724,7 @@
         <v>1</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C225" s="1"/>
       <c r="D225" s="12"/>
@@ -5764,10 +5766,10 @@
     </row>
     <row r="228" spans="1:9">
       <c r="A228" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C228" s="1"/>
       <c r="D228" s="12"/>
@@ -5829,7 +5831,7 @@
         <v>raw GaAs wafer</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D231" s="12">
         <f>B226</f>
@@ -5840,7 +5842,7 @@
         <v>square meter</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G231" s="1" t="s">
         <v>10</v>
@@ -5850,13 +5852,13 @@
     </row>
     <row r="232" spans="1:9">
       <c r="A232" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B232" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D232" s="19">
         <v>20.222221999999999</v>
@@ -5865,7 +5867,7 @@
         <v>5</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G232" s="1" t="s">
         <v>17</v>
@@ -5875,13 +5877,13 @@
     </row>
     <row r="233" spans="1:9">
       <c r="A233" s="10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B233" s="32" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D233" s="19">
         <v>7.8220000000000007E-5</v>
@@ -5897,18 +5899,18 @@
       </c>
       <c r="H233" s="1"/>
       <c r="I233" s="10" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="234" spans="1:9">
       <c r="A234" s="10" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="B234" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D234" s="19">
         <v>0.31111109999999997</v>
@@ -5917,7 +5919,7 @@
         <v>5</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G234" s="1" t="s">
         <v>17</v>
@@ -5927,13 +5929,13 @@
     </row>
     <row r="235" spans="1:9">
       <c r="A235" s="1" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B235" s="10" t="s">
         <v>39</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D235" s="19">
         <v>1.77778E-2</v>
@@ -5942,25 +5944,25 @@
         <v>4</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G235" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H235" s="1"/>
       <c r="I235" s="1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="236" spans="1:9">
       <c r="A236" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D236" s="19">
         <v>2.9629629999999998</v>
@@ -5976,18 +5978,18 @@
       </c>
       <c r="H236" s="1"/>
       <c r="I236" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="237" spans="1:9">
       <c r="A237" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D237" s="19">
         <v>7.4074074000000003</v>
@@ -6003,18 +6005,18 @@
       </c>
       <c r="H237" s="1"/>
       <c r="I237" s="33" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="238" spans="1:9">
       <c r="A238" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B238" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D238" s="19">
         <v>-6.0740740999999998</v>
@@ -6030,7 +6032,7 @@
       </c>
       <c r="H238" s="1"/>
       <c r="I238" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="239" spans="1:9">
@@ -6049,7 +6051,7 @@
         <v>0</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C240" s="1"/>
       <c r="D240" s="12"/>
@@ -6061,10 +6063,10 @@
     </row>
     <row r="241" spans="1:9">
       <c r="A241" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="B241" s="41" t="s">
         <v>250</v>
-      </c>
-      <c r="B241" s="41" t="s">
-        <v>258</v>
       </c>
       <c r="C241" s="1"/>
       <c r="D241" s="12"/>
@@ -6109,7 +6111,7 @@
         <v>1</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C244" s="1"/>
       <c r="D244" s="12"/>
@@ -6151,10 +6153,10 @@
     </row>
     <row r="247" spans="1:9">
       <c r="A247" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C247" s="1"/>
       <c r="D247" s="12"/>
@@ -6216,7 +6218,7 @@
         <v>sawing slurry</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D250" s="12">
         <v>1</v>
@@ -6226,7 +6228,7 @@
         <v>kilogram</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G250" s="1" t="s">
         <v>10</v>
@@ -6236,13 +6238,13 @@
     </row>
     <row r="251" spans="1:9">
       <c r="A251" s="10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B251" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D251" s="19">
         <v>0.5</v>
@@ -6258,18 +6260,18 @@
       </c>
       <c r="H251" s="1"/>
       <c r="I251" s="10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="252" spans="1:9">
       <c r="A252" s="10" t="s">
-        <v>165</v>
+        <v>269</v>
       </c>
       <c r="B252" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D252" s="19">
         <v>0.5</v>
@@ -6285,7 +6287,7 @@
       </c>
       <c r="H252" s="1"/>
       <c r="I252" s="10" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="253" spans="1:9">
@@ -6299,7 +6301,7 @@
         <v>0</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="C254" s="1"/>
       <c r="D254" s="12"/>
@@ -6311,10 +6313,10 @@
     </row>
     <row r="255" spans="1:9">
       <c r="A255" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="B255" s="41" t="s">
         <v>250</v>
-      </c>
-      <c r="B255" s="41" t="s">
-        <v>258</v>
       </c>
       <c r="C255" s="1"/>
       <c r="D255" s="12"/>
@@ -6359,7 +6361,7 @@
         <v>1</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C258" s="1"/>
       <c r="D258" s="12"/>
@@ -6401,10 +6403,10 @@
     </row>
     <row r="261" spans="1:9">
       <c r="A261" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C261" s="1"/>
       <c r="D261" s="12"/>
@@ -6466,7 +6468,7 @@
         <v>etched GaAs wafer</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D264" s="12">
         <f>B259</f>
@@ -6477,7 +6479,7 @@
         <v>square meter</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G264" s="1" t="s">
         <v>10</v>
@@ -6487,13 +6489,13 @@
     </row>
     <row r="265" spans="1:9">
       <c r="A265" s="1" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="B265" s="10" t="s">
         <v>43</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D265" s="19">
         <v>1</v>
@@ -6502,7 +6504,7 @@
         <v>20</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G265" s="1" t="s">
         <v>17</v>
@@ -6512,13 +6514,13 @@
     </row>
     <row r="266" spans="1:9">
       <c r="A266" s="10" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B266" s="10" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D266" s="19">
         <v>88.888889000000006</v>
@@ -6537,13 +6539,13 @@
     </row>
     <row r="267" spans="1:9">
       <c r="A267" s="10" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B267" s="10" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D267" s="19">
         <v>1.2888888999999999</v>
@@ -6559,18 +6561,18 @@
       </c>
       <c r="H267" s="1"/>
       <c r="I267" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="268" spans="1:9">
       <c r="A268" s="10" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B268" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D268" s="19">
         <v>1.0222222000000001</v>
@@ -6586,18 +6588,18 @@
       </c>
       <c r="H268" s="1"/>
       <c r="I268" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="269" spans="1:9">
       <c r="A269" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D269" s="19">
         <v>0.97777780000000003</v>
@@ -6613,18 +6615,18 @@
       </c>
       <c r="H269" s="1"/>
       <c r="I269" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="270" spans="1:9">
       <c r="A270" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D270" s="19">
         <v>1.9851852000000001</v>
@@ -6640,18 +6642,18 @@
       </c>
       <c r="H270" s="1"/>
       <c r="I270" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="271" spans="1:9">
       <c r="A271" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B271" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D271" s="24">
         <v>-0.88888889999999998</v>
@@ -6667,7 +6669,7 @@
       </c>
       <c r="H271" s="1"/>
       <c r="I271" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="272" spans="1:9">
@@ -6682,7 +6684,7 @@
         <v>0</v>
       </c>
       <c r="B273" s="13" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="C273" s="1"/>
       <c r="D273" s="12"/>
@@ -6694,10 +6696,10 @@
     </row>
     <row r="274" spans="1:9">
       <c r="A274" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="B274" s="41" t="s">
         <v>250</v>
-      </c>
-      <c r="B274" s="41" t="s">
-        <v>258</v>
       </c>
       <c r="C274" s="1"/>
       <c r="D274" s="12"/>
@@ -6742,7 +6744,7 @@
         <v>1</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C277" s="1"/>
       <c r="D277" s="12"/>
@@ -6784,10 +6786,10 @@
     </row>
     <row r="280" spans="1:9">
       <c r="A280" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C280" s="1"/>
       <c r="D280" s="12"/>
@@ -6849,7 +6851,7 @@
         <v>pre-polished GaAs wafer</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D283" s="12">
         <f>B278</f>
@@ -6860,7 +6862,7 @@
         <v>square meter</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G283" s="1" t="s">
         <v>10</v>
@@ -6870,13 +6872,13 @@
     </row>
     <row r="284" spans="1:9">
       <c r="A284" s="1" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="B284" s="10" t="s">
         <v>45</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D284" s="19">
         <v>1</v>
@@ -6885,7 +6887,7 @@
         <v>20</v>
       </c>
       <c r="F284" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G284" s="1" t="s">
         <v>17</v>
@@ -6895,13 +6897,13 @@
     </row>
     <row r="285" spans="1:9">
       <c r="A285" s="10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B285" s="10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D285" s="19">
         <v>9.3036999999999998E-3</v>
@@ -6917,18 +6919,18 @@
       </c>
       <c r="H285" s="1"/>
       <c r="I285" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="286" spans="1:9">
       <c r="A286" s="1" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="B286" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D286" s="19">
         <v>29.925926</v>
@@ -6937,7 +6939,7 @@
         <v>5</v>
       </c>
       <c r="F286" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G286" s="1" t="s">
         <v>17</v>
@@ -6947,13 +6949,13 @@
     </row>
     <row r="287" spans="1:9">
       <c r="A287" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D287" s="19">
         <v>9.7777778000000009</v>
@@ -6969,18 +6971,18 @@
       </c>
       <c r="H287" s="1"/>
       <c r="I287" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="288" spans="1:9">
       <c r="A288" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B288" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D288" s="19">
         <v>-1.4814814999999999</v>
@@ -6996,7 +6998,7 @@
       </c>
       <c r="H288" s="1"/>
       <c r="I288" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="289" spans="1:9">
@@ -7011,7 +7013,7 @@
         <v>0</v>
       </c>
       <c r="B290" s="13" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C290" s="1"/>
       <c r="D290" s="12"/>
@@ -7023,10 +7025,10 @@
     </row>
     <row r="291" spans="1:9">
       <c r="A291" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="B291" s="41" t="s">
         <v>250</v>
-      </c>
-      <c r="B291" s="41" t="s">
-        <v>258</v>
       </c>
       <c r="C291" s="1"/>
       <c r="D291" s="12"/>
@@ -7071,7 +7073,7 @@
         <v>1</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C294" s="1"/>
       <c r="D294" s="12"/>
@@ -7113,10 +7115,10 @@
     </row>
     <row r="297" spans="1:9">
       <c r="A297" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C297" s="1"/>
       <c r="D297" s="12"/>
@@ -7178,7 +7180,7 @@
         <v>double-polished GaAs wafer</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D300" s="12">
         <f>B295</f>
@@ -7189,7 +7191,7 @@
         <v>square meter</v>
       </c>
       <c r="F300" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G300" s="1" t="s">
         <v>10</v>
@@ -7199,13 +7201,13 @@
     </row>
     <row r="301" spans="1:9">
       <c r="A301" s="10" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B301" s="10" t="s">
         <v>46</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D301" s="19">
         <v>1</v>
@@ -7214,7 +7216,7 @@
         <v>20</v>
       </c>
       <c r="F301" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G301" s="1" t="s">
         <v>17</v>
@@ -7224,13 +7226,13 @@
     </row>
     <row r="302" spans="1:9">
       <c r="A302" s="10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B302" s="10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D302" s="19">
         <v>1.8666700000000001E-2</v>
@@ -7246,18 +7248,18 @@
       </c>
       <c r="H302" s="1"/>
       <c r="I302" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="303" spans="1:9">
       <c r="A303" s="10" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="B303" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D303" s="19">
         <v>23.703703999999998</v>
@@ -7266,7 +7268,7 @@
         <v>5</v>
       </c>
       <c r="F303" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G303" s="1" t="s">
         <v>17</v>
@@ -7276,13 +7278,13 @@
     </row>
     <row r="304" spans="1:9">
       <c r="A304" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D304" s="19">
         <v>48.888888999999999</v>
@@ -7298,18 +7300,18 @@
       </c>
       <c r="H304" s="1"/>
       <c r="I304" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="305" spans="1:9">
       <c r="A305" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B305" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D305" s="19">
         <v>-7.4074074000000003</v>
@@ -7325,7 +7327,7 @@
       </c>
       <c r="H305" s="1"/>
       <c r="I305" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="306" spans="1:9">
@@ -7340,7 +7342,7 @@
         <v>0</v>
       </c>
       <c r="B307" s="13" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C307" s="1"/>
       <c r="D307" s="12"/>
@@ -7352,10 +7354,10 @@
     </row>
     <row r="308" spans="1:9">
       <c r="A308" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="B308" s="41" t="s">
         <v>250</v>
-      </c>
-      <c r="B308" s="41" t="s">
-        <v>258</v>
       </c>
       <c r="C308" s="1"/>
       <c r="D308" s="12"/>
@@ -7400,7 +7402,7 @@
         <v>1</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C311" s="1"/>
       <c r="D311" s="12"/>
@@ -7442,10 +7444,10 @@
     </row>
     <row r="314" spans="1:9">
       <c r="A314" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C314" s="1"/>
       <c r="D314" s="12"/>
@@ -7507,7 +7509,7 @@
         <v>CMP slurry</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D317" s="12">
         <f>B312</f>
@@ -7518,7 +7520,7 @@
         <v>kilogram</v>
       </c>
       <c r="F317" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G317" s="1" t="s">
         <v>10</v>
@@ -7528,13 +7530,13 @@
     </row>
     <row r="318" spans="1:9">
       <c r="A318" s="10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B318" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D318" s="19">
         <v>0.5</v>
@@ -7550,18 +7552,18 @@
       </c>
       <c r="H318" s="1"/>
       <c r="I318" s="10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="319" spans="1:9">
       <c r="A319" s="10" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B319" s="10" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D319" s="19">
         <v>0.25</v>
@@ -7580,13 +7582,13 @@
     </row>
     <row r="320" spans="1:9">
       <c r="A320" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B320" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D320" s="19">
         <v>0.25</v>
@@ -7619,7 +7621,7 @@
         <v>0</v>
       </c>
       <c r="B322" s="13" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="C322" s="1"/>
       <c r="D322" s="12"/>
@@ -7631,10 +7633,10 @@
     </row>
     <row r="323" spans="1:9">
       <c r="A323" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="B323" s="41" t="s">
         <v>250</v>
-      </c>
-      <c r="B323" s="41" t="s">
-        <v>258</v>
       </c>
       <c r="C323" s="1"/>
       <c r="D323" s="12"/>
@@ -7679,7 +7681,7 @@
         <v>1</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C326" s="1"/>
       <c r="D326" s="12"/>
@@ -7721,10 +7723,10 @@
     </row>
     <row r="329" spans="1:9">
       <c r="A329" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C329" s="1"/>
       <c r="D329" s="12"/>
@@ -7786,7 +7788,7 @@
         <v>GaAs wafer</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D332" s="12">
         <f>B327</f>
@@ -7797,7 +7799,7 @@
         <v>square meter</v>
       </c>
       <c r="F332" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G332" s="1" t="s">
         <v>10</v>
@@ -7807,13 +7809,13 @@
     </row>
     <row r="333" spans="1:9">
       <c r="A333" s="10" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="B333" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D333" s="19">
         <v>1</v>
@@ -7822,7 +7824,7 @@
         <v>20</v>
       </c>
       <c r="F333" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G333" s="1" t="s">
         <v>17</v>
@@ -7832,13 +7834,13 @@
     </row>
     <row r="334" spans="1:9">
       <c r="A334" s="10" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B334" s="10" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D334" s="19">
         <v>88.888889000000006</v>
@@ -7857,13 +7859,13 @@
     </row>
     <row r="335" spans="1:9">
       <c r="A335" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B335" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D335" s="19">
         <v>5.9555556000000003</v>
@@ -7882,13 +7884,13 @@
     </row>
     <row r="336" spans="1:9">
       <c r="A336" s="10" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B336" s="10" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D336" s="19">
         <v>0.1226667</v>
@@ -7904,18 +7906,18 @@
       </c>
       <c r="H336" s="1"/>
       <c r="I336" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="337" spans="1:9">
       <c r="A337" s="10" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B337" s="10" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D337" s="19">
         <v>1.4222E-3</v>
@@ -7931,18 +7933,18 @@
       </c>
       <c r="H337" s="1"/>
       <c r="I337" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="338" spans="1:9">
       <c r="A338" s="10" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B338" s="10" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D338" s="19">
         <v>0.17777780000000001</v>
@@ -7958,18 +7960,18 @@
       </c>
       <c r="H338" s="1"/>
       <c r="I338" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="339" spans="1:9">
       <c r="A339" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D339" s="19">
         <v>8.8888888999999995</v>
@@ -7985,18 +7987,18 @@
       </c>
       <c r="H339" s="1"/>
       <c r="I339" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="340" spans="1:9">
       <c r="A340" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D340" s="19">
         <v>8.8888888999999995</v>
@@ -8012,7 +8014,7 @@
       </c>
       <c r="H340" s="1"/>
       <c r="I340" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="341" spans="1:9">
@@ -8031,7 +8033,7 @@
         <v>0</v>
       </c>
       <c r="B342" s="28" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="C342" s="1"/>
       <c r="D342" s="12"/>
@@ -8043,10 +8045,10 @@
     </row>
     <row r="343" spans="1:9">
       <c r="A343" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="B343" s="41" t="s">
         <v>250</v>
-      </c>
-      <c r="B343" s="41" t="s">
-        <v>258</v>
       </c>
       <c r="C343" s="1"/>
       <c r="D343" s="12"/>
@@ -8061,7 +8063,7 @@
         <v>2</v>
       </c>
       <c r="B344" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C344" s="1"/>
       <c r="D344" s="12"/>
@@ -8076,7 +8078,7 @@
         <v>14</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C345" s="1"/>
       <c r="D345" s="12"/>
@@ -8091,7 +8093,7 @@
         <v>1</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C346" s="1"/>
       <c r="D346" s="12"/>
@@ -8121,7 +8123,7 @@
         <v>4</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C348" s="1"/>
       <c r="D348" s="12"/>
@@ -8133,10 +8135,10 @@
     </row>
     <row r="349" spans="1:9">
       <c r="A349" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C349" s="1"/>
       <c r="D349" s="12"/>
@@ -8198,7 +8200,7 @@
         <v>trimethyl aluminum 99% pure</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D352" s="12">
         <f>B347</f>
@@ -8208,7 +8210,7 @@
         <v>5</v>
       </c>
       <c r="F352" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G352" s="1" t="s">
         <v>10</v>
@@ -8218,13 +8220,13 @@
     </row>
     <row r="353" spans="1:9">
       <c r="A353" s="29" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="B353" s="29" t="s">
         <v>65</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D353" s="30">
         <v>2.7530000000000001</v>
@@ -8233,7 +8235,7 @@
         <v>5</v>
       </c>
       <c r="F353" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G353" s="1" t="s">
         <v>17</v>
@@ -8243,13 +8245,13 @@
     </row>
     <row r="354" spans="1:9">
       <c r="A354" s="29" t="s">
-        <v>189</v>
+        <v>276</v>
       </c>
       <c r="B354" s="29" t="s">
         <v>66</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D354" s="30">
         <v>0.9</v>
@@ -8268,13 +8270,13 @@
     </row>
     <row r="355" spans="1:9">
       <c r="A355" s="34" t="s">
-        <v>209</v>
+        <v>275</v>
       </c>
       <c r="B355" s="34" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D355" s="30">
         <v>2.8000000000000001E-2</v>
@@ -8289,19 +8291,17 @@
         <v>17</v>
       </c>
       <c r="H355" s="1"/>
-      <c r="I355" s="10" t="s">
-        <v>210</v>
-      </c>
+      <c r="I355" s="10"/>
     </row>
     <row r="356" spans="1:9">
       <c r="A356" s="29" t="s">
-        <v>190</v>
+        <v>273</v>
       </c>
       <c r="B356" s="29" t="s">
-        <v>67</v>
+        <v>274</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D356" s="30">
         <v>5.1029999999999998</v>
@@ -8320,13 +8320,13 @@
     </row>
     <row r="357" spans="1:9">
       <c r="A357" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D357" s="30">
         <v>0.17299999999999999</v>
@@ -8345,13 +8345,13 @@
     </row>
     <row r="358" spans="1:9">
       <c r="A358" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B358" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B358" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="C358" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D358" s="30">
         <v>-7.57</v>
@@ -8367,7 +8367,7 @@
       </c>
       <c r="H358" s="1"/>
       <c r="I358" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="360" spans="1:9">
@@ -8375,7 +8375,7 @@
         <v>0</v>
       </c>
       <c r="B360" s="39" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C360" s="1"/>
       <c r="D360" s="12"/>
@@ -8387,10 +8387,10 @@
     </row>
     <row r="361" spans="1:9">
       <c r="A361" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="B361" s="41" t="s">
         <v>250</v>
-      </c>
-      <c r="B361" s="41" t="s">
-        <v>258</v>
       </c>
       <c r="C361" s="1"/>
       <c r="D361" s="12"/>
@@ -8420,7 +8420,7 @@
         <v>14</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C363" s="1"/>
       <c r="D363" s="12"/>
@@ -8435,7 +8435,7 @@
         <v>1</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C364" s="1"/>
       <c r="D364" s="12"/>
@@ -8477,10 +8477,10 @@
     </row>
     <row r="367" spans="1:9">
       <c r="A367" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C367" s="1"/>
       <c r="D367" s="12"/>
@@ -8542,7 +8542,7 @@
         <v>methyl aluminum sesquichloride</v>
       </c>
       <c r="C370" s="41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D370" s="48">
         <f>B365</f>
@@ -8552,7 +8552,7 @@
         <v>5</v>
       </c>
       <c r="F370" s="41" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G370" s="41" t="s">
         <v>10</v>
@@ -8562,13 +8562,13 @@
     </row>
     <row r="371" spans="1:9" s="38" customFormat="1">
       <c r="A371" s="49" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B371" s="49" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C371" s="41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D371" s="50">
         <v>1.6E-2</v>
@@ -8587,13 +8587,13 @@
     </row>
     <row r="372" spans="1:9">
       <c r="A372" s="49" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B372" s="49" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C372" s="41" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D372" s="50">
         <v>0.26200000000000001</v>
@@ -8609,18 +8609,18 @@
       </c>
       <c r="H372" s="41"/>
       <c r="I372" s="49" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="373" spans="1:9">
       <c r="A373" s="49" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B373" s="49" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C373" s="41" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D373" s="50">
         <v>0.73699999999999999</v>
@@ -8639,13 +8639,13 @@
     </row>
     <row r="374" spans="1:9">
       <c r="A374" s="41" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B374" s="41" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C374" s="41" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D374" s="50">
         <v>3.0000000000000001E-3</v>
@@ -8664,7 +8664,7 @@
     </row>
     <row r="375" spans="1:9" s="6" customFormat="1">
       <c r="A375" s="49" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B375" s="49"/>
       <c r="C375" s="41"/>
@@ -8675,21 +8675,21 @@
         <v>5</v>
       </c>
       <c r="F375" s="41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G375" s="41" t="s">
         <v>11</v>
       </c>
       <c r="H375" s="41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I375" s="41" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="376" spans="1:9">
       <c r="A376" s="49" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B376" s="49"/>
       <c r="C376" s="41"/>
@@ -8700,13 +8700,13 @@
         <v>5</v>
       </c>
       <c r="F376" s="41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G376" s="41" t="s">
         <v>11</v>
       </c>
       <c r="H376" s="41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I376" s="41"/>
     </row>
@@ -8715,7 +8715,7 @@
         <v>0</v>
       </c>
       <c r="B378" s="39" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C378" s="41"/>
       <c r="D378" s="48"/>
@@ -8727,10 +8727,10 @@
     </row>
     <row r="379" spans="1:9">
       <c r="A379" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="B379" s="41" t="s">
         <v>250</v>
-      </c>
-      <c r="B379" s="41" t="s">
-        <v>258</v>
       </c>
       <c r="C379" s="41"/>
       <c r="D379" s="48"/>
@@ -8745,7 +8745,7 @@
         <v>2</v>
       </c>
       <c r="B380" s="49" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="C380" s="41"/>
       <c r="D380" s="48"/>
@@ -8760,7 +8760,7 @@
         <v>14</v>
       </c>
       <c r="B381" s="41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C381" s="41"/>
       <c r="D381" s="48"/>
@@ -8775,7 +8775,7 @@
         <v>1</v>
       </c>
       <c r="B382" s="41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C382" s="41"/>
       <c r="D382" s="48"/>
@@ -8817,10 +8817,10 @@
     </row>
     <row r="385" spans="1:9">
       <c r="A385" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C385" s="41"/>
       <c r="D385" s="48"/>
@@ -8882,7 +8882,7 @@
         <v>trimethyl gallium 99% pure</v>
       </c>
       <c r="C388" s="41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D388" s="48">
         <f>B383</f>
@@ -8892,7 +8892,7 @@
         <v>5</v>
       </c>
       <c r="F388" s="41" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G388" s="41" t="s">
         <v>10</v>
@@ -8902,13 +8902,13 @@
     </row>
     <row r="389" spans="1:9">
       <c r="A389" s="49" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B389" s="49" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C389" s="41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D389" s="50">
         <v>1.5760000000000001</v>
@@ -8917,7 +8917,7 @@
         <v>5</v>
       </c>
       <c r="F389" s="41" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G389" s="41" t="s">
         <v>17</v>
@@ -8927,13 +8927,13 @@
     </row>
     <row r="390" spans="1:9">
       <c r="A390" s="49" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="B390" s="49" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C390" s="41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D390" s="50">
         <v>1.012</v>
@@ -8942,7 +8942,7 @@
         <v>5</v>
       </c>
       <c r="F390" s="41" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G390" s="41" t="s">
         <v>17</v>
@@ -8952,13 +8952,13 @@
     </row>
     <row r="391" spans="1:9">
       <c r="A391" s="49" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B391" s="49" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C391" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D391" s="50">
         <v>0.8</v>
@@ -8974,18 +8974,18 @@
       </c>
       <c r="H391" s="41"/>
       <c r="I391" s="49" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="392" spans="1:9">
       <c r="A392" s="41" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B392" s="41" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C392" s="41" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D392" s="50">
         <v>0.112</v>
@@ -9004,13 +9004,13 @@
     </row>
     <row r="393" spans="1:9" s="6" customFormat="1">
       <c r="A393" s="49" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B393" s="49" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C393" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D393" s="50">
         <v>-2.4</v>
@@ -9026,7 +9026,7 @@
       </c>
       <c r="H393" s="41"/>
       <c r="I393" s="41" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="395" spans="1:9">
@@ -9034,7 +9034,7 @@
         <v>0</v>
       </c>
       <c r="B395" s="28" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C395" s="1"/>
       <c r="D395" s="12"/>
@@ -9046,10 +9046,10 @@
     </row>
     <row r="396" spans="1:9">
       <c r="A396" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="B396" s="41" t="s">
         <v>250</v>
-      </c>
-      <c r="B396" s="41" t="s">
-        <v>258</v>
       </c>
       <c r="C396" s="1"/>
       <c r="D396" s="12"/>
@@ -9064,7 +9064,7 @@
         <v>2</v>
       </c>
       <c r="B397" s="29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C397" s="1"/>
       <c r="D397" s="12"/>
@@ -9079,7 +9079,7 @@
         <v>14</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C398" s="1"/>
       <c r="D398" s="12"/>
@@ -9094,7 +9094,7 @@
         <v>1</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C399" s="1"/>
       <c r="D399" s="12"/>
@@ -9136,10 +9136,10 @@
     </row>
     <row r="402" spans="1:9">
       <c r="A402" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C402" s="1"/>
       <c r="D402" s="12"/>
@@ -9201,7 +9201,7 @@
         <v>gallium chloride</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D405" s="12">
         <f>B400</f>
@@ -9211,7 +9211,7 @@
         <v>5</v>
       </c>
       <c r="F405" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G405" s="1" t="s">
         <v>10</v>
@@ -9221,13 +9221,13 @@
     </row>
     <row r="406" spans="1:9">
       <c r="A406" s="29" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B406" s="29" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D406" s="30">
         <v>0.39600000000000002</v>
@@ -9246,13 +9246,13 @@
     </row>
     <row r="407" spans="1:9">
       <c r="A407" s="29" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B407" s="29" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D407" s="30">
         <v>0.60399999999999998</v>
@@ -9268,18 +9268,18 @@
       </c>
       <c r="H407" s="1"/>
       <c r="I407" s="10" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="408" spans="1:9">
       <c r="A408" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D408" s="30">
         <v>0.28399999999999997</v>
@@ -9308,7 +9308,7 @@
         <v>0</v>
       </c>
       <c r="B410" s="28" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C410" s="1"/>
       <c r="D410" s="12"/>
@@ -9320,10 +9320,10 @@
     </row>
     <row r="411" spans="1:9">
       <c r="A411" s="41" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B411" s="41" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="C411" s="1"/>
       <c r="D411" s="12"/>
@@ -9338,7 +9338,7 @@
         <v>2</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C412" s="1"/>
       <c r="D412" s="12"/>
@@ -9353,7 +9353,7 @@
         <v>14</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C413" s="1"/>
       <c r="D413" s="12"/>
@@ -9368,7 +9368,7 @@
         <v>1</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C414" s="1"/>
       <c r="D414" s="12"/>
@@ -9410,10 +9410,10 @@
     </row>
     <row r="417" spans="1:9">
       <c r="A417" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C417" s="1"/>
       <c r="D417" s="12"/>
@@ -9475,7 +9475,7 @@
         <v>photovoltaic installation, GaAs</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D420" s="12">
         <f>B415</f>
@@ -9486,25 +9486,25 @@
         <v>unit</v>
       </c>
       <c r="F420" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G420" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H420" s="1"/>
       <c r="I420" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="421" spans="1:9">
       <c r="A421" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D421" s="12">
         <v>0.23</v>
@@ -9523,13 +9523,13 @@
     </row>
     <row r="422" spans="1:9">
       <c r="A422" s="29" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B422" s="29" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D422" s="12">
         <f>2.4*0.28/3</f>
@@ -9546,18 +9546,18 @@
       </c>
       <c r="H422" s="1"/>
       <c r="I422" s="10" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="423" spans="1:9">
       <c r="A423" s="1" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D423" s="12">
         <v>21.428999999999998</v>
@@ -9576,13 +9576,13 @@
     </row>
     <row r="424" spans="1:9">
       <c r="A424" s="1" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D424" s="12">
         <v>1</v>
@@ -9601,13 +9601,13 @@
     </row>
     <row r="425" spans="1:9">
       <c r="A425" s="29" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B425" s="29" t="s">
         <v>33</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D425" s="42">
         <v>22.071000000000002</v>
@@ -9629,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="B427" s="28" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C427" s="1"/>
       <c r="D427" s="12"/>
@@ -9641,10 +9641,10 @@
     </row>
     <row r="428" spans="1:9">
       <c r="A428" s="41" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B428" s="41" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="C428" s="1"/>
       <c r="D428" s="12"/>
@@ -9659,7 +9659,7 @@
         <v>2</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C429" s="1"/>
       <c r="D429" s="12"/>
@@ -9674,7 +9674,7 @@
         <v>14</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C430" s="1"/>
       <c r="D430" s="12"/>
@@ -9689,7 +9689,7 @@
         <v>1</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C431" s="1"/>
       <c r="D431" s="12"/>
@@ -9731,10 +9731,10 @@
     </row>
     <row r="434" spans="1:9">
       <c r="A434" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C434" s="1"/>
       <c r="D434" s="12"/>
@@ -9796,7 +9796,7 @@
         <v>electricity, low voltage</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D437" s="12">
         <f>B432</f>
@@ -9806,7 +9806,7 @@
         <v>16</v>
       </c>
       <c r="F437" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G437" s="1" t="s">
         <v>10</v>
@@ -9816,13 +9816,13 @@
     </row>
     <row r="438" spans="1:9">
       <c r="A438" s="29" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D438" s="40">
         <f>1/0.28/1700/30/0.85/100</f>
@@ -9832,25 +9832,25 @@
         <v>4</v>
       </c>
       <c r="F438" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G438" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H438" s="1"/>
       <c r="I438" s="10" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="439" spans="1:9">
       <c r="A439" s="43" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B439" s="43" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="C439" s="43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D439" s="47">
         <f>0.00579493511839/0.0000135395680336215*D438</f>
@@ -9867,18 +9867,18 @@
       </c>
       <c r="H439" s="43"/>
       <c r="I439" s="43" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="440" spans="1:9">
       <c r="A440" s="44" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B440" s="43" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C440" s="43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D440" s="45">
         <f>-0.00000579493511839/0.0000135395680336215*D438</f>
@@ -9898,7 +9898,7 @@
     </row>
     <row r="441" spans="1:9">
       <c r="A441" s="43" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B441" s="43"/>
       <c r="C441" s="43"/>
@@ -9916,13 +9916,13 @@
         <v>11</v>
       </c>
       <c r="H441" s="43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I441" s="43"/>
     </row>
     <row r="442" spans="1:9">
       <c r="A442" s="44" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B442" s="43"/>
       <c r="C442" s="43"/>
@@ -9931,7 +9931,7 @@
         <v>0.23428399841819003</v>
       </c>
       <c r="E442" s="43" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="F442" s="43" t="s">
         <v>11</v>
@@ -9940,7 +9940,7 @@
         <v>11</v>
       </c>
       <c r="H442" s="43" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="I442" s="46"/>
     </row>

--- a/premise/data/additional_inventories/lci-PV-GaAs.xlsx
+++ b/premise/data/additional_inventories/lci-PV-GaAs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29FE051-7C47-4870-AB5C-9CF6143F8D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE82CCC-E568-4117-B134-95913218A925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-3615" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PV_GaAs" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="278">
   <si>
     <t>Activity</t>
   </si>
@@ -699,9 +699,6 @@
     <t>coating, drying, optical lithography</t>
   </si>
   <si>
-    <t xml:space="preserve">electricity production, photovoltaic, GaAs </t>
-  </si>
-  <si>
     <t>photovoltaic installation, GaAs</t>
   </si>
   <si>
@@ -862,6 +859,12 @@
   </si>
   <si>
     <t>sodium production, sodium chloride electrolysis, molten salt cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">electricity production, photovoltaic, 0.28kWp, GaAs </t>
+  </si>
+  <si>
+    <t>photovoltaic installation, 0.28kWp, GaAs</t>
   </si>
 </sst>
 </file>
@@ -1413,8 +1416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I442"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A339" zoomScale="108" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="A354" sqref="A354"/>
+    <sheetView tabSelected="1" topLeftCell="A409" zoomScale="108" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="B437" sqref="B437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1466,10 +1469,10 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="41" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="12"/>
@@ -1556,10 +1559,10 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="12"/>
@@ -1644,7 +1647,7 @@
     </row>
     <row r="16" spans="1:9" ht="15.75">
       <c r="A16" s="31" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>21</v>
@@ -1890,10 +1893,10 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="41" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B27" s="41" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="12"/>
@@ -1980,10 +1983,10 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="12"/>
@@ -2292,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="12"/>
@@ -2304,10 +2307,10 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="41" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B48" s="41" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="12"/>
@@ -2394,10 +2397,10 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="12"/>
@@ -2612,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="12"/>
@@ -2624,10 +2627,10 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="41" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B65" s="41" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="12"/>
@@ -2714,10 +2717,10 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="12"/>
@@ -2823,10 +2826,10 @@
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>74</v>
@@ -2845,7 +2848,7 @@
       </c>
       <c r="H76" s="1"/>
       <c r="I76" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -2902,10 +2905,10 @@
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="29" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B79" s="29" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>78</v>
@@ -3034,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="12"/>
@@ -3046,10 +3049,10 @@
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="41" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B86" s="41" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="12"/>
@@ -3136,10 +3139,10 @@
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="12"/>
@@ -3222,7 +3225,7 @@
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>33</v>
@@ -3353,7 +3356,7 @@
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>36</v>
@@ -3473,7 +3476,7 @@
         <v>0</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C106" s="1"/>
       <c r="D106" s="12"/>
@@ -3485,10 +3488,10 @@
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="41" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B107" s="41" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C107" s="1"/>
       <c r="D107" s="12"/>
@@ -3575,10 +3578,10 @@
     </row>
     <row r="113" spans="1:9">
       <c r="A113" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="C113" s="1"/>
       <c r="D113" s="12"/>
@@ -3661,7 +3664,7 @@
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B117" s="10" t="s">
         <v>212</v>
@@ -3686,7 +3689,7 @@
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B118" s="10" t="s">
         <v>211</v>
@@ -3798,7 +3801,7 @@
         <v>0</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C123" s="1"/>
       <c r="D123" s="12"/>
@@ -3810,10 +3813,10 @@
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="41" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B124" s="41" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C124" s="1"/>
       <c r="D124" s="12"/>
@@ -3900,10 +3903,10 @@
     </row>
     <row r="130" spans="1:9">
       <c r="A130" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="C130" s="1"/>
       <c r="D130" s="12"/>
@@ -4048,7 +4051,7 @@
         <v>0</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C137" s="1"/>
       <c r="D137" s="12"/>
@@ -4060,10 +4063,10 @@
     </row>
     <row r="138" spans="1:9">
       <c r="A138" s="41" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B138" s="41" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C138" s="1"/>
       <c r="D138" s="12"/>
@@ -4150,10 +4153,10 @@
     </row>
     <row r="144" spans="1:9">
       <c r="A144" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B144" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="C144" s="1"/>
       <c r="D144" s="12"/>
@@ -4262,10 +4265,10 @@
     </row>
     <row r="149" spans="1:9">
       <c r="A149" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>74</v>
@@ -4346,7 +4349,7 @@
         <v>0</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C153" s="1"/>
       <c r="D153" s="12"/>
@@ -4358,10 +4361,10 @@
     </row>
     <row r="154" spans="1:9">
       <c r="A154" s="41" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B154" s="41" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C154" s="1"/>
       <c r="D154" s="12"/>
@@ -4448,10 +4451,10 @@
     </row>
     <row r="160" spans="1:9">
       <c r="A160" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B160" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="C160" s="1"/>
       <c r="D160" s="12"/>
@@ -4533,7 +4536,7 @@
     </row>
     <row r="164" spans="1:9">
       <c r="A164" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B164" s="10" t="s">
         <v>37</v>
@@ -4730,7 +4733,7 @@
         <v>0</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C172" s="1"/>
       <c r="D172" s="12"/>
@@ -4742,10 +4745,10 @@
     </row>
     <row r="173" spans="1:9">
       <c r="A173" s="41" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B173" s="41" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C173" s="1"/>
       <c r="D173" s="12"/>
@@ -4832,10 +4835,10 @@
     </row>
     <row r="179" spans="1:9">
       <c r="A179" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B179" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="C179" s="1"/>
       <c r="D179" s="12"/>
@@ -4918,7 +4921,7 @@
     </row>
     <row r="183" spans="1:9">
       <c r="A183" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B183" s="10" t="s">
         <v>38</v>
@@ -4970,7 +4973,7 @@
     </row>
     <row r="185" spans="1:9">
       <c r="A185" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B185" s="10" t="s">
         <v>39</v>
@@ -5113,7 +5116,7 @@
         <v>0</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C191" s="1"/>
       <c r="D191" s="12"/>
@@ -5125,10 +5128,10 @@
     </row>
     <row r="192" spans="1:9">
       <c r="A192" s="41" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B192" s="41" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C192" s="1"/>
       <c r="D192" s="12"/>
@@ -5215,10 +5218,10 @@
     </row>
     <row r="198" spans="1:9">
       <c r="A198" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B198" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="C198" s="1"/>
       <c r="D198" s="12"/>
@@ -5328,7 +5331,7 @@
     </row>
     <row r="203" spans="1:9">
       <c r="A203" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B203" s="10" t="s">
         <v>41</v>
@@ -5389,7 +5392,7 @@
         <v>0</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C206" s="1"/>
       <c r="D206" s="12"/>
@@ -5401,10 +5404,10 @@
     </row>
     <row r="207" spans="1:9">
       <c r="A207" s="41" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B207" s="41" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C207" s="1"/>
       <c r="D207" s="12"/>
@@ -5491,10 +5494,10 @@
     </row>
     <row r="213" spans="1:9">
       <c r="A213" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B213" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="C213" s="1"/>
       <c r="D213" s="12"/>
@@ -5604,10 +5607,10 @@
     </row>
     <row r="218" spans="1:9">
       <c r="A218" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>74</v>
@@ -5664,7 +5667,7 @@
         <v>0</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C221" s="1"/>
       <c r="D221" s="12"/>
@@ -5676,10 +5679,10 @@
     </row>
     <row r="222" spans="1:9">
       <c r="A222" s="41" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B222" s="41" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C222" s="1"/>
       <c r="D222" s="12"/>
@@ -5766,10 +5769,10 @@
     </row>
     <row r="228" spans="1:9">
       <c r="A228" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B228" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="B228" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="C228" s="1"/>
       <c r="D228" s="12"/>
@@ -5852,7 +5855,7 @@
     </row>
     <row r="232" spans="1:9">
       <c r="A232" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B232" s="10" t="s">
         <v>40</v>
@@ -5904,7 +5907,7 @@
     </row>
     <row r="234" spans="1:9">
       <c r="A234" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B234" s="10" t="s">
         <v>42</v>
@@ -5929,7 +5932,7 @@
     </row>
     <row r="235" spans="1:9">
       <c r="A235" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B235" s="10" t="s">
         <v>39</v>
@@ -6051,7 +6054,7 @@
         <v>0</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C240" s="1"/>
       <c r="D240" s="12"/>
@@ -6063,10 +6066,10 @@
     </row>
     <row r="241" spans="1:9">
       <c r="A241" s="41" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B241" s="41" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C241" s="1"/>
       <c r="D241" s="12"/>
@@ -6153,10 +6156,10 @@
     </row>
     <row r="247" spans="1:9">
       <c r="A247" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B247" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="B247" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="C247" s="1"/>
       <c r="D247" s="12"/>
@@ -6265,7 +6268,7 @@
     </row>
     <row r="252" spans="1:9">
       <c r="A252" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B252" s="10" t="s">
         <v>161</v>
@@ -6301,7 +6304,7 @@
         <v>0</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C254" s="1"/>
       <c r="D254" s="12"/>
@@ -6313,10 +6316,10 @@
     </row>
     <row r="255" spans="1:9">
       <c r="A255" s="41" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B255" s="41" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C255" s="1"/>
       <c r="D255" s="12"/>
@@ -6403,10 +6406,10 @@
     </row>
     <row r="261" spans="1:9">
       <c r="A261" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B261" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="B261" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="C261" s="1"/>
       <c r="D261" s="12"/>
@@ -6489,7 +6492,7 @@
     </row>
     <row r="265" spans="1:9">
       <c r="A265" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B265" s="10" t="s">
         <v>43</v>
@@ -6684,7 +6687,7 @@
         <v>0</v>
       </c>
       <c r="B273" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C273" s="1"/>
       <c r="D273" s="12"/>
@@ -6696,10 +6699,10 @@
     </row>
     <row r="274" spans="1:9">
       <c r="A274" s="41" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B274" s="41" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C274" s="1"/>
       <c r="D274" s="12"/>
@@ -6786,10 +6789,10 @@
     </row>
     <row r="280" spans="1:9">
       <c r="A280" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B280" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="B280" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="C280" s="1"/>
       <c r="D280" s="12"/>
@@ -6872,7 +6875,7 @@
     </row>
     <row r="284" spans="1:9">
       <c r="A284" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B284" s="10" t="s">
         <v>45</v>
@@ -6924,7 +6927,7 @@
     </row>
     <row r="286" spans="1:9">
       <c r="A286" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B286" s="10" t="s">
         <v>42</v>
@@ -7013,7 +7016,7 @@
         <v>0</v>
       </c>
       <c r="B290" s="13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C290" s="1"/>
       <c r="D290" s="12"/>
@@ -7025,10 +7028,10 @@
     </row>
     <row r="291" spans="1:9">
       <c r="A291" s="41" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B291" s="41" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C291" s="1"/>
       <c r="D291" s="12"/>
@@ -7115,10 +7118,10 @@
     </row>
     <row r="297" spans="1:9">
       <c r="A297" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B297" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="B297" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="C297" s="1"/>
       <c r="D297" s="12"/>
@@ -7201,7 +7204,7 @@
     </row>
     <row r="301" spans="1:9">
       <c r="A301" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B301" s="10" t="s">
         <v>46</v>
@@ -7253,7 +7256,7 @@
     </row>
     <row r="303" spans="1:9">
       <c r="A303" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B303" s="10" t="s">
         <v>36</v>
@@ -7342,7 +7345,7 @@
         <v>0</v>
       </c>
       <c r="B307" s="13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C307" s="1"/>
       <c r="D307" s="12"/>
@@ -7354,10 +7357,10 @@
     </row>
     <row r="308" spans="1:9">
       <c r="A308" s="41" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B308" s="41" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C308" s="1"/>
       <c r="D308" s="12"/>
@@ -7444,10 +7447,10 @@
     </row>
     <row r="314" spans="1:9">
       <c r="A314" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B314" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="B314" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="C314" s="1"/>
       <c r="D314" s="12"/>
@@ -7621,7 +7624,7 @@
         <v>0</v>
       </c>
       <c r="B322" s="13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C322" s="1"/>
       <c r="D322" s="12"/>
@@ -7633,10 +7636,10 @@
     </row>
     <row r="323" spans="1:9">
       <c r="A323" s="41" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B323" s="41" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C323" s="1"/>
       <c r="D323" s="12"/>
@@ -7723,10 +7726,10 @@
     </row>
     <row r="329" spans="1:9">
       <c r="A329" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B329" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="B329" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="C329" s="1"/>
       <c r="D329" s="12"/>
@@ -7809,7 +7812,7 @@
     </row>
     <row r="333" spans="1:9">
       <c r="A333" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B333" s="10" t="s">
         <v>47</v>
@@ -8033,7 +8036,7 @@
         <v>0</v>
       </c>
       <c r="B342" s="28" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C342" s="1"/>
       <c r="D342" s="12"/>
@@ -8045,10 +8048,10 @@
     </row>
     <row r="343" spans="1:9">
       <c r="A343" s="41" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B343" s="41" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C343" s="1"/>
       <c r="D343" s="12"/>
@@ -8135,10 +8138,10 @@
     </row>
     <row r="349" spans="1:9">
       <c r="A349" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B349" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="B349" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="C349" s="1"/>
       <c r="D349" s="12"/>
@@ -8220,7 +8223,7 @@
     </row>
     <row r="353" spans="1:9">
       <c r="A353" s="29" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B353" s="29" t="s">
         <v>65</v>
@@ -8245,7 +8248,7 @@
     </row>
     <row r="354" spans="1:9">
       <c r="A354" s="29" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B354" s="29" t="s">
         <v>66</v>
@@ -8270,7 +8273,7 @@
     </row>
     <row r="355" spans="1:9">
       <c r="A355" s="34" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B355" s="34" t="s">
         <v>202</v>
@@ -8295,10 +8298,10 @@
     </row>
     <row r="356" spans="1:9">
       <c r="A356" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="B356" s="29" t="s">
         <v>273</v>
-      </c>
-      <c r="B356" s="29" t="s">
-        <v>274</v>
       </c>
       <c r="C356" s="1" t="s">
         <v>74</v>
@@ -8375,7 +8378,7 @@
         <v>0</v>
       </c>
       <c r="B360" s="39" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C360" s="1"/>
       <c r="D360" s="12"/>
@@ -8387,10 +8390,10 @@
     </row>
     <row r="361" spans="1:9">
       <c r="A361" s="41" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B361" s="41" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C361" s="1"/>
       <c r="D361" s="12"/>
@@ -8477,10 +8480,10 @@
     </row>
     <row r="367" spans="1:9">
       <c r="A367" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B367" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="B367" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="C367" s="1"/>
       <c r="D367" s="12"/>
@@ -8715,7 +8718,7 @@
         <v>0</v>
       </c>
       <c r="B378" s="39" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C378" s="41"/>
       <c r="D378" s="48"/>
@@ -8727,10 +8730,10 @@
     </row>
     <row r="379" spans="1:9">
       <c r="A379" s="41" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B379" s="41" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C379" s="41"/>
       <c r="D379" s="48"/>
@@ -8745,7 +8748,7 @@
         <v>2</v>
       </c>
       <c r="B380" s="49" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C380" s="41"/>
       <c r="D380" s="48"/>
@@ -8817,10 +8820,10 @@
     </row>
     <row r="385" spans="1:9">
       <c r="A385" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B385" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="B385" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="C385" s="41"/>
       <c r="D385" s="48"/>
@@ -8902,7 +8905,7 @@
     </row>
     <row r="389" spans="1:9">
       <c r="A389" s="49" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B389" s="49" t="s">
         <v>67</v>
@@ -8927,7 +8930,7 @@
     </row>
     <row r="390" spans="1:9">
       <c r="A390" s="49" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B390" s="49" t="s">
         <v>68</v>
@@ -9034,7 +9037,7 @@
         <v>0</v>
       </c>
       <c r="B395" s="28" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C395" s="1"/>
       <c r="D395" s="12"/>
@@ -9046,10 +9049,10 @@
     </row>
     <row r="396" spans="1:9">
       <c r="A396" s="41" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B396" s="41" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C396" s="1"/>
       <c r="D396" s="12"/>
@@ -9136,10 +9139,10 @@
     </row>
     <row r="402" spans="1:9">
       <c r="A402" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B402" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="B402" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="C402" s="1"/>
       <c r="D402" s="12"/>
@@ -9308,7 +9311,7 @@
         <v>0</v>
       </c>
       <c r="B410" s="28" t="s">
-        <v>223</v>
+        <v>277</v>
       </c>
       <c r="C410" s="1"/>
       <c r="D410" s="12"/>
@@ -9320,10 +9323,10 @@
     </row>
     <row r="411" spans="1:9">
       <c r="A411" s="41" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B411" s="41" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C411" s="1"/>
       <c r="D411" s="12"/>
@@ -9338,7 +9341,7 @@
         <v>2</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C412" s="1"/>
       <c r="D412" s="12"/>
@@ -9353,7 +9356,7 @@
         <v>14</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C413" s="1"/>
       <c r="D413" s="12"/>
@@ -9410,10 +9413,10 @@
     </row>
     <row r="417" spans="1:9">
       <c r="A417" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B417" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="B417" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="C417" s="1"/>
       <c r="D417" s="12"/>
@@ -9468,7 +9471,7 @@
     <row r="420" spans="1:9">
       <c r="A420" s="1" t="str">
         <f>B410</f>
-        <v>photovoltaic installation, GaAs</v>
+        <v>photovoltaic installation, 0.28kWp, GaAs</v>
       </c>
       <c r="B420" s="1" t="str">
         <f>B412</f>
@@ -9493,7 +9496,7 @@
       </c>
       <c r="H420" s="1"/>
       <c r="I420" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="421" spans="1:9">
@@ -9523,10 +9526,10 @@
     </row>
     <row r="422" spans="1:9">
       <c r="A422" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B422" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C422" s="1" t="s">
         <v>78</v>
@@ -9546,15 +9549,15 @@
       </c>
       <c r="H422" s="1"/>
       <c r="I422" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="423" spans="1:9">
       <c r="A423" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C423" s="1" t="s">
         <v>78</v>
@@ -9576,10 +9579,10 @@
     </row>
     <row r="424" spans="1:9">
       <c r="A424" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C424" s="1" t="s">
         <v>78</v>
@@ -9601,7 +9604,7 @@
     </row>
     <row r="425" spans="1:9">
       <c r="A425" s="29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B425" s="29" t="s">
         <v>33</v>
@@ -9629,7 +9632,7 @@
         <v>0</v>
       </c>
       <c r="B427" s="28" t="s">
-        <v>222</v>
+        <v>276</v>
       </c>
       <c r="C427" s="1"/>
       <c r="D427" s="12"/>
@@ -9641,10 +9644,10 @@
     </row>
     <row r="428" spans="1:9">
       <c r="A428" s="41" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B428" s="41" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C428" s="1"/>
       <c r="D428" s="12"/>
@@ -9659,7 +9662,7 @@
         <v>2</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>118</v>
+        <v>276</v>
       </c>
       <c r="C429" s="1"/>
       <c r="D429" s="12"/>
@@ -9731,10 +9734,10 @@
     </row>
     <row r="434" spans="1:9">
       <c r="A434" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B434" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="B434" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="C434" s="1"/>
       <c r="D434" s="12"/>
@@ -9789,11 +9792,11 @@
     <row r="437" spans="1:9">
       <c r="A437" s="1" t="str">
         <f>B427</f>
-        <v xml:space="preserve">electricity production, photovoltaic, GaAs </v>
+        <v xml:space="preserve">electricity production, photovoltaic, 0.28kWp, GaAs </v>
       </c>
       <c r="B437" s="1" t="str">
         <f>B429</f>
-        <v>electricity, low voltage</v>
+        <v xml:space="preserve">electricity production, photovoltaic, 0.28kWp, GaAs </v>
       </c>
       <c r="C437" s="1" t="s">
         <v>78</v>
@@ -9816,10 +9819,10 @@
     </row>
     <row r="438" spans="1:9">
       <c r="A438" s="29" t="s">
-        <v>223</v>
+        <v>277</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C438" s="1" t="s">
         <v>78</v>
@@ -9839,15 +9842,15 @@
       </c>
       <c r="H438" s="1"/>
       <c r="I438" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="439" spans="1:9">
       <c r="A439" s="43" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B439" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C439" s="43" t="s">
         <v>82</v>
@@ -9867,15 +9870,15 @@
       </c>
       <c r="H439" s="43"/>
       <c r="I439" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="440" spans="1:9">
       <c r="A440" s="44" t="s">
+        <v>239</v>
+      </c>
+      <c r="B440" s="43" t="s">
         <v>240</v>
-      </c>
-      <c r="B440" s="43" t="s">
-        <v>241</v>
       </c>
       <c r="C440" s="43" t="s">
         <v>82</v>
@@ -9922,7 +9925,7 @@
     </row>
     <row r="442" spans="1:9">
       <c r="A442" s="44" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B442" s="43"/>
       <c r="C442" s="43"/>
@@ -9931,7 +9934,7 @@
         <v>0.23428399841819003</v>
       </c>
       <c r="E442" s="43" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F442" s="43" t="s">
         <v>11</v>
@@ -9940,7 +9943,7 @@
         <v>11</v>
       </c>
       <c r="H442" s="43" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I442" s="46"/>
     </row>

--- a/premise/data/additional_inventories/lci-PV-GaAs.xlsx
+++ b/premise/data/additional_inventories/lci-PV-GaAs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72819E8-7B34-2441-BDD1-2F2733E33856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53BE842-FA3F-2F45-9F37-F0A97B89CC63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -768,9 +768,6 @@
     <t>wet etching</t>
   </si>
   <si>
-    <t>metal organic vapor phase epitaxy (MOVPE)</t>
-  </si>
-  <si>
     <t>epitaxial lift-off (ELO)</t>
   </si>
   <si>
@@ -877,6 +874,9 @@
   </si>
   <si>
     <t>Value from Pallas, assuming 100 times re used. Min-max values represent a 20-40 years lifetime and a 25-28% efficiency interval.</t>
+  </si>
+  <si>
+    <t>metal organic vapor phase epitaxy (MOVPE), for GaAs photovoltaic panel</t>
   </si>
 </sst>
 </file>
@@ -1377,8 +1377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M442"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B407" zoomScale="108" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="M438" sqref="M438"/>
+    <sheetView tabSelected="1" topLeftCell="A403" zoomScale="108" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="A417" sqref="A417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>244</v>
+        <v>280</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
@@ -2428,7 +2428,7 @@
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="str">
         <f>B64</f>
-        <v>metal organic vapor phase epitaxy (MOVPE)</v>
+        <v>metal organic vapor phase epitaxy (MOVPE), for GaAs photovoltaic panel</v>
       </c>
       <c r="B74" t="str">
         <f>B66</f>
@@ -2475,10 +2475,10 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B76" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C76" t="s">
         <v>73</v>
@@ -2496,7 +2496,7 @@
         <v>16</v>
       </c>
       <c r="I76" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
@@ -2550,10 +2550,10 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C79" t="s">
         <v>77</v>
@@ -2674,7 +2674,7 @@
         <v>0</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
@@ -2797,7 +2797,7 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>244</v>
+        <v>280</v>
       </c>
       <c r="B96" t="s">
         <v>32</v>
@@ -2921,7 +2921,7 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B101" t="s">
         <v>35</v>
@@ -3025,7 +3025,7 @@
         <v>0</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
@@ -3033,7 +3033,7 @@
         <v>239</v>
       </c>
       <c r="B107" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
@@ -3147,7 +3147,7 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B117" s="9" t="s">
         <v>211</v>
@@ -3171,7 +3171,7 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B118" s="9" t="s">
         <v>210</v>
@@ -3279,7 +3279,7 @@
         <v>0</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
@@ -3287,7 +3287,7 @@
         <v>239</v>
       </c>
       <c r="B124" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
@@ -3461,7 +3461,7 @@
         <v>0</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
@@ -3469,7 +3469,7 @@
         <v>239</v>
       </c>
       <c r="B138" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
@@ -3608,10 +3608,10 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B149" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C149" t="s">
         <v>73</v>
@@ -3689,7 +3689,7 @@
         <v>0</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.2">
@@ -3697,7 +3697,7 @@
         <v>239</v>
       </c>
       <c r="B154" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.2">
@@ -3810,7 +3810,7 @@
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B164" s="9" t="s">
         <v>36</v>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
@@ -4008,7 +4008,7 @@
         <v>239</v>
       </c>
       <c r="B173" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.2">
@@ -4122,7 +4122,7 @@
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B183" s="9" t="s">
         <v>37</v>
@@ -4172,7 +4172,7 @@
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B185" s="9" t="s">
         <v>38</v>
@@ -4309,7 +4309,7 @@
         <v>0</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.2">
@@ -4317,7 +4317,7 @@
         <v>239</v>
       </c>
       <c r="B192" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.2">
@@ -4457,7 +4457,7 @@
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B203" s="9" t="s">
         <v>40</v>
@@ -4516,7 +4516,7 @@
         <v>0</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.2">
@@ -4524,7 +4524,7 @@
         <v>239</v>
       </c>
       <c r="B207" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.2">
@@ -4664,10 +4664,10 @@
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B218" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C218" t="s">
         <v>73</v>
@@ -4722,7 +4722,7 @@
         <v>0</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.2">
@@ -4730,7 +4730,7 @@
         <v>239</v>
       </c>
       <c r="B222" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.2">
@@ -4844,7 +4844,7 @@
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B232" s="9" t="s">
         <v>39</v>
@@ -4894,7 +4894,7 @@
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A234" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B234" s="9" t="s">
         <v>41</v>
@@ -4917,7 +4917,7 @@
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B235" s="9" t="s">
         <v>38</v>
@@ -5035,7 +5035,7 @@
         <v>0</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.2">
@@ -5043,7 +5043,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.2">
@@ -5182,7 +5182,7 @@
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A252" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B252" s="9" t="s">
         <v>160</v>
@@ -5217,7 +5217,7 @@
         <v>0</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.2">
@@ -5225,7 +5225,7 @@
         <v>239</v>
       </c>
       <c r="B255" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.2">
@@ -5339,7 +5339,7 @@
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B265" s="9" t="s">
         <v>42</v>
@@ -5527,7 +5527,7 @@
         <v>0</v>
       </c>
       <c r="B273" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.2">
@@ -5535,7 +5535,7 @@
         <v>239</v>
       </c>
       <c r="B274" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.2">
@@ -5649,7 +5649,7 @@
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B284" s="9" t="s">
         <v>44</v>
@@ -5699,7 +5699,7 @@
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B286" s="9" t="s">
         <v>41</v>
@@ -5785,7 +5785,7 @@
         <v>0</v>
       </c>
       <c r="B290" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.2">
@@ -5793,7 +5793,7 @@
         <v>239</v>
       </c>
       <c r="B291" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.2">
@@ -5907,7 +5907,7 @@
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A301" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B301" s="9" t="s">
         <v>45</v>
@@ -5957,7 +5957,7 @@
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A303" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B303" s="9" t="s">
         <v>35</v>
@@ -6043,7 +6043,7 @@
         <v>0</v>
       </c>
       <c r="B307" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.2">
@@ -6051,7 +6051,7 @@
         <v>239</v>
       </c>
       <c r="B308" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.2">
@@ -6252,7 +6252,7 @@
         <v>0</v>
       </c>
       <c r="B322" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.2">
@@ -6260,7 +6260,7 @@
         <v>239</v>
       </c>
       <c r="B323" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.2">
@@ -6374,7 +6374,7 @@
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A333" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B333" s="9" t="s">
         <v>46</v>
@@ -6579,7 +6579,7 @@
         <v>0</v>
       </c>
       <c r="B342" s="20" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.2">
@@ -6587,7 +6587,7 @@
         <v>239</v>
       </c>
       <c r="B343" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.2">
@@ -6700,7 +6700,7 @@
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A353" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B353" s="8" t="s">
         <v>64</v>
@@ -6724,7 +6724,7 @@
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A354" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B354" s="8" t="s">
         <v>65</v>
@@ -6748,7 +6748,7 @@
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A355" s="22" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B355" s="22" t="s">
         <v>201</v>
@@ -6772,10 +6772,10 @@
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A356" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="B356" s="8" t="s">
         <v>269</v>
-      </c>
-      <c r="B356" s="8" t="s">
-        <v>270</v>
       </c>
       <c r="C356" t="s">
         <v>73</v>
@@ -6847,7 +6847,7 @@
         <v>0</v>
       </c>
       <c r="B360" s="23" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.2">
@@ -6855,7 +6855,7 @@
         <v>239</v>
       </c>
       <c r="B361" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.2">
@@ -7115,7 +7115,7 @@
         <v>0</v>
       </c>
       <c r="B378" s="23" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.2">
@@ -7123,7 +7123,7 @@
         <v>239</v>
       </c>
       <c r="B379" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.2">
@@ -7131,7 +7131,7 @@
         <v>2</v>
       </c>
       <c r="B380" s="22" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.2">
@@ -7236,7 +7236,7 @@
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A389" s="22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B389" s="22" t="s">
         <v>66</v>
@@ -7260,7 +7260,7 @@
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A390" s="22" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B390" s="22" t="s">
         <v>67</v>
@@ -7363,7 +7363,7 @@
         <v>0</v>
       </c>
       <c r="B395" s="20" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.2">
@@ -7371,7 +7371,7 @@
         <v>239</v>
       </c>
       <c r="B396" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.2">
@@ -7568,7 +7568,7 @@
         <v>0</v>
       </c>
       <c r="B410" s="20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.2">
@@ -7789,7 +7789,7 @@
     </row>
     <row r="425" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A425" s="8" t="s">
-        <v>244</v>
+        <v>280</v>
       </c>
       <c r="B425" s="8" t="s">
         <v>32</v>
@@ -7815,7 +7815,7 @@
         <v>0</v>
       </c>
       <c r="B427" s="20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="428" spans="1:9" x14ac:dyDescent="0.2">
@@ -7831,7 +7831,7 @@
         <v>2</v>
       </c>
       <c r="B429" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="430" spans="1:9" x14ac:dyDescent="0.2">
@@ -7908,16 +7908,16 @@
         <v>239</v>
       </c>
       <c r="J436" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="K436" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="K436" s="2" t="s">
+      <c r="L436" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="L436" s="2" t="s">
+      <c r="M436" s="2" t="s">
         <v>278</v>
-      </c>
-      <c r="M436" s="2" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="437" spans="1:13" x14ac:dyDescent="0.2">
@@ -7948,7 +7948,7 @@
     </row>
     <row r="438" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A438" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B438" t="s">
         <v>221</v>
@@ -7970,7 +7970,7 @@
         <v>16</v>
       </c>
       <c r="I438" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J438">
         <v>5</v>

--- a/premise/data/additional_inventories/lci-PV-GaAs.xlsx
+++ b/premise/data/additional_inventories/lci-PV-GaAs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53BE842-FA3F-2F45-9F37-F0A97B89CC63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60242467-B8B1-2C4C-8011-74BFD34AE101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -873,10 +873,10 @@
     <t>maximum</t>
   </si>
   <si>
-    <t>Value from Pallas, assuming 100 times re used. Min-max values represent a 20-40 years lifetime and a 25-28% efficiency interval.</t>
-  </si>
-  <si>
     <t>metal organic vapor phase epitaxy (MOVPE), for GaAs photovoltaic panel</t>
+  </si>
+  <si>
+    <t>Value from Pallas, assuming 100 times re used. Min-max values represent a 20-40 years lifetime.</t>
   </si>
 </sst>
 </file>
@@ -1076,9 +1076,6 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1092,6 +1089,9 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1377,8 +1377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M442"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A403" zoomScale="108" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="A417" sqref="A417"/>
+    <sheetView tabSelected="1" topLeftCell="A401" zoomScale="108" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="D427" sqref="D427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
@@ -2797,7 +2797,7 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B96" t="s">
         <v>32</v>
@@ -7789,7 +7789,7 @@
     </row>
     <row r="425" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A425" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B425" s="8" t="s">
         <v>32</v>
@@ -7797,7 +7797,7 @@
       <c r="C425" t="s">
         <v>77</v>
       </c>
-      <c r="D425" s="27">
+      <c r="D425" s="33">
         <v>22.071000000000002</v>
       </c>
       <c r="E425" t="s">
@@ -7956,7 +7956,7 @@
       <c r="C438" t="s">
         <v>77</v>
       </c>
-      <c r="D438" s="28">
+      <c r="D438" s="27">
         <f>1/0.28/1700/30/0.85/100</f>
         <v>8.2385895534684457E-7</v>
       </c>
@@ -7970,7 +7970,7 @@
         <v>16</v>
       </c>
       <c r="I438" s="9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="J438">
         <v>5</v>
@@ -7989,106 +7989,106 @@
       </c>
     </row>
     <row r="439" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A439" s="29" t="s">
+      <c r="A439" s="28" t="s">
         <v>236</v>
       </c>
-      <c r="B439" s="29" t="s">
+      <c r="B439" s="28" t="s">
         <v>235</v>
       </c>
-      <c r="C439" s="29" t="s">
+      <c r="C439" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="D439" s="30">
+      <c r="D439" s="29">
         <f>0.00579493511839/0.0000135395680336215*D438</f>
         <v>3.526116328884494E-4</v>
       </c>
-      <c r="E439" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="F439" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="G439" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="H439" s="29"/>
-      <c r="I439" s="29" t="s">
+      <c r="E439" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="F439" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="G439" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="H439" s="28"/>
+      <c r="I439" s="28" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="440" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A440" s="31" t="s">
+      <c r="A440" s="30" t="s">
         <v>237</v>
       </c>
-      <c r="B440" s="29" t="s">
+      <c r="B440" s="28" t="s">
         <v>238</v>
       </c>
-      <c r="C440" s="29" t="s">
+      <c r="C440" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="D440" s="32">
+      <c r="D440" s="31">
         <f>-0.00000579493511839/0.0000135395680336215*D438</f>
         <v>-3.5261163288844939E-7</v>
       </c>
-      <c r="E440" s="29" t="s">
+      <c r="E440" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="F440" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="G440" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="H440" s="29"/>
-      <c r="I440" s="33"/>
+      <c r="F440" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="G440" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="H440" s="28"/>
+      <c r="I440" s="32"/>
     </row>
     <row r="441" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A441" s="29" t="s">
+      <c r="A441" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="B441" s="29"/>
-      <c r="C441" s="29"/>
-      <c r="D441" s="30">
+      <c r="B441" s="28"/>
+      <c r="C441" s="28"/>
+      <c r="D441" s="29">
         <f>0.0000008692402677585/0.0000135395680336215*D438</f>
         <v>5.2891744933267405E-8</v>
       </c>
-      <c r="E441" s="29" t="s">
+      <c r="E441" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="F441" s="29" t="s">
+      <c r="F441" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="G441" s="29" t="s">
+      <c r="G441" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="H441" s="29" t="s">
+      <c r="H441" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="I441" s="29"/>
+      <c r="I441" s="28"/>
     </row>
     <row r="442" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A442" s="31" t="s">
+      <c r="A442" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="B442" s="29"/>
-      <c r="C442" s="29"/>
-      <c r="D442" s="32">
+      <c r="B442" s="28"/>
+      <c r="C442" s="28"/>
+      <c r="D442" s="31">
         <f>3.8503/0.0000135395680336215*D438</f>
         <v>0.23428399841819003</v>
       </c>
-      <c r="E442" s="29" t="s">
+      <c r="E442" s="28" t="s">
         <v>233</v>
       </c>
-      <c r="F442" s="29" t="s">
+      <c r="F442" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="G442" s="29" t="s">
+      <c r="G442" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="H442" s="29" t="s">
+      <c r="H442" s="28" t="s">
         <v>232</v>
       </c>
-      <c r="I442" s="33"/>
+      <c r="I442" s="32"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I442" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
